--- a/data/trans_orig/P16B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F48C964-2DC1-44D6-BA8A-6ADD342C181F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{67A2BF7B-63DB-44DF-8DB5-F27FCB7F558A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{197DEC04-2AF0-44B5-9989-878E550140B3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC34B8BD-99F5-4EC7-8F99-A088A2A4E662}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="333">
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2007 (Tasa respuesta: 6,65%)</t>
   </si>
@@ -76,10 +76,10 @@
     <t>61,14%</t>
   </si>
   <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
   </si>
   <si>
     <t>80,84%</t>
@@ -94,10 +94,10 @@
     <t>67,93%</t>
   </si>
   <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,10 +106,10 @@
     <t>38,86%</t>
   </si>
   <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
   </si>
   <si>
     <t>19,16%</t>
@@ -124,10 +124,10 @@
     <t>32,07%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>82,46%</t>
   </si>
   <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
   </si>
   <si>
     <t>71,04%</t>
   </si>
   <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
   </si>
   <si>
     <t>77,29%</t>
   </si>
   <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
   </si>
   <si>
     <t>17,54%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>28,96%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
   </si>
   <si>
     <t>22,71%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -196,514 +196,520 @@
     <t>73,69%</t>
   </si>
   <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
   </si>
   <si>
     <t>75,86%</t>
   </si>
   <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>64,45%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
     <t>62,72%</t>
   </si>
   <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
   </si>
   <si>
     <t>37,28%</t>
   </si>
   <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
   </si>
   <si>
     <t>66,96%</t>
   </si>
   <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>73,35%</t>
   </si>
   <si>
     <t>33,04%</t>
   </si>
   <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
   </si>
   <si>
     <t>33,72%</t>
   </si>
   <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
   </si>
   <si>
     <t>69,42%</t>
   </si>
   <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
+    <t>63,92%</t>
+  </si>
+  <si>
+    <t>74,87%</t>
   </si>
   <si>
     <t>72,08%</t>
   </si>
   <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
   </si>
   <si>
     <t>30,58%</t>
   </si>
   <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
   </si>
   <si>
     <t>27,92%</t>
   </si>
   <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2015 (Tasa respuesta: 7,86%)</t>
@@ -712,325 +718,325 @@
     <t>67,19%</t>
   </si>
   <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
   </si>
   <si>
     <t>50,54%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
   </si>
   <si>
     <t>59,66%</t>
   </si>
   <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>68,02%</t>
   </si>
   <si>
     <t>49,46%</t>
   </si>
   <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
   </si>
   <si>
     <t>40,34%</t>
   </si>
   <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>64,52%</t>
   </si>
   <si>
     <t>75,25%</t>
   </si>
   <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
   </si>
   <si>
     <t>58,11%</t>
   </si>
   <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
   </si>
   <si>
     <t>64,74%</t>
   </si>
   <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
   </si>
   <si>
     <t>24,75%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
   </si>
   <si>
     <t>41,89%</t>
   </si>
   <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
   </si>
   <si>
     <t>35,26%</t>
   </si>
   <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
   </si>
   <si>
     <t>60,77%</t>
   </si>
   <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
   </si>
   <si>
     <t>78,89%</t>
   </si>
   <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
+    <t>68,69%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
   </si>
   <si>
     <t>69,83%</t>
   </si>
   <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
   </si>
   <si>
     <t>21,11%</t>
   </si>
   <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
   </si>
   <si>
     <t>30,17%</t>
   </si>
   <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
   </si>
   <si>
     <t>45,78%</t>
   </si>
   <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
+    <t>31,05%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>52,39%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
   <si>
     <t>57,22%</t>
   </si>
   <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
   </si>
   <si>
     <t>54,22%</t>
   </si>
   <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>47,61%</t>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
   </si>
   <si>
     <t>42,78%</t>
   </si>
   <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
   </si>
   <si>
     <t>61,87%</t>
   </si>
   <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
   </si>
   <si>
     <t>59,93%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
   </si>
   <si>
     <t>60,83%</t>
   </si>
   <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>68,33%</t>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
   </si>
   <si>
     <t>38,13%</t>
   </si>
   <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
   </si>
   <si>
     <t>40,07%</t>
   </si>
   <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
   </si>
   <si>
     <t>39,17%</t>
   </si>
   <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
   </si>
   <si>
     <t>60,19%</t>
   </si>
   <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>66,55%</t>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
   </si>
   <si>
     <t>66,42%</t>
   </si>
   <si>
-    <t>61,11%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
+    <t>60,48%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
   </si>
   <si>
     <t>63,49%</t>
   </si>
   <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>67,94%</t>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
   </si>
   <si>
     <t>39,81%</t>
   </si>
   <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>46,48%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
   </si>
   <si>
     <t>36,51%</t>
   </si>
   <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48B2F3FB-4CBF-4E8E-84FD-B53CDE298B83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4666FC07-C356-48F3-8145-95C9253EB71A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2207,7 +2213,7 @@
         <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -2216,13 +2222,13 @@
         <v>113089</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2243,13 @@
         <v>15364</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -2252,13 +2258,13 @@
         <v>24810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -2267,13 +2273,13 @@
         <v>40174</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,13 +2347,13 @@
         <v>170424</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>150</v>
@@ -2356,13 +2362,13 @@
         <v>158002</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>321</v>
@@ -2371,13 +2377,13 @@
         <v>328425</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,13 +2398,13 @@
         <v>56296</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -2407,13 +2413,13 @@
         <v>58146</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -2422,13 +2428,13 @@
         <v>114443</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,7 +2490,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2505,7 +2511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFED94F7-AC01-435F-A975-95E91474DCA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B724F23-AAE3-48B8-8A6A-28641F8B8EC9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2522,7 +2528,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2629,10 +2635,10 @@
         <v>2666</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -2647,7 +2653,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>30</v>
@@ -2659,10 +2665,10 @@
         <v>6913</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -2680,13 +2686,13 @@
         <v>2614</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>16</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3109,13 +3115,13 @@
         <v>38836</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -3124,13 +3130,13 @@
         <v>94582</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,13 +3166,13 @@
         <v>21607</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -3175,10 +3181,10 @@
         <v>48950</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>187</v>
@@ -3249,13 +3255,13 @@
         <v>62687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>188</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -3264,13 +3270,13 @@
         <v>64152</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -3279,13 +3285,13 @@
         <v>126839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3306,13 @@
         <v>30932</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -3315,13 +3321,13 @@
         <v>32641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -3330,13 +3336,13 @@
         <v>63573</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3410,13 @@
         <v>222927</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="H19" s="7">
         <v>199</v>
@@ -3419,13 +3425,13 @@
         <v>212595</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M19" s="7">
         <v>402</v>
@@ -3434,13 +3440,13 @@
         <v>435522</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3461,13 @@
         <v>98194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H20" s="7">
         <v>81</v>
@@ -3470,13 +3476,13 @@
         <v>82363</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>171</v>
@@ -3485,13 +3491,13 @@
         <v>180557</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,7 +3553,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +3574,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8F7935-002D-4CBC-9DE7-EE0DF53F1446}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA780F9-1531-4BD1-9176-152954A45DB1}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3585,7 +3591,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3692,13 +3698,13 @@
         <v>6122</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3707,13 +3713,13 @@
         <v>3800</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -3722,13 +3728,13 @@
         <v>9923</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3749,13 @@
         <v>2990</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3758,13 +3764,13 @@
         <v>3720</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3773,13 +3779,13 @@
         <v>6709</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3853,13 @@
         <v>23171</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3862,13 +3868,13 @@
         <v>28363</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -3877,13 +3883,13 @@
         <v>51535</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3904,13 @@
         <v>7623</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -3913,13 +3919,13 @@
         <v>20451</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -3928,13 +3934,13 @@
         <v>28073</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,13 +4008,13 @@
         <v>51895</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -4017,13 +4023,13 @@
         <v>67316</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -4032,13 +4038,13 @@
         <v>119212</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4059,13 @@
         <v>33501</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -4068,13 +4074,13 @@
         <v>18009</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -4083,13 +4089,13 @@
         <v>51510</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4163,13 @@
         <v>22737</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -4172,13 +4178,13 @@
         <v>36558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -4187,13 +4193,13 @@
         <v>59294</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4214,13 @@
         <v>26930</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4223,13 +4229,13 @@
         <v>17406</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
@@ -4238,13 +4244,13 @@
         <v>44337</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4312,13 +4318,13 @@
         <v>50783</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -4327,13 +4333,13 @@
         <v>56375</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -4342,13 +4348,13 @@
         <v>107158</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4369,13 @@
         <v>31294</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -4378,13 +4384,13 @@
         <v>37694</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -4393,13 +4399,13 @@
         <v>68988</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4473,13 @@
         <v>154709</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H19" s="7">
         <v>181</v>
@@ -4482,13 +4488,13 @@
         <v>192413</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>333</v>
@@ -4497,13 +4503,13 @@
         <v>347122</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4518,13 +4524,13 @@
         <v>102337</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>90</v>
@@ -4533,13 +4539,13 @@
         <v>97279</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="M20" s="7">
         <v>183</v>
@@ -4548,13 +4554,13 @@
         <v>199616</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,7 +4616,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B01-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67A2BF7B-63DB-44DF-8DB5-F27FCB7F558A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{614A243B-4E54-4EC5-A60A-1E32DEDAF472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CC34B8BD-99F5-4EC7-8F99-A088A2A4E662}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D886295-042C-4CE4-98DB-F5E6CEEC3CCA}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="331">
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2007 (Tasa respuesta: 6,65%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -76,16 +76,16 @@
     <t>61,14%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
   </si>
   <si>
     <t>80,84%</t>
   </si>
   <si>
-    <t>18,28%</t>
+    <t>21,75%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,10 +94,10 @@
     <t>67,93%</t>
   </si>
   <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,10 +106,10 @@
     <t>38,86%</t>
   </si>
   <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>76,13%</t>
   </si>
   <si>
     <t>19,16%</t>
@@ -118,925 +118,919 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>81,72%</t>
+    <t>78,25%</t>
   </si>
   <si>
     <t>32,07%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>82,46%</t>
   </si>
   <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>62,73%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>63,17%</t>
+  </si>
+  <si>
+    <t>81,61%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>78,17%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
     <t>64,25%</t>
   </si>
   <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>63,47%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>75,5%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
   </si>
   <si>
     <t>35,75%</t>
   </si>
   <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>61,91%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>57,79%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>77,12%</t>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>48,36%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2016 (Tasa respuesta: 7,86%)</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>43,24%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>60,77%</t>
+  </si>
+  <si>
+    <t>48,39%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>61,55%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>67,74%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>57,22%</t>
+  </si>
+  <si>
+    <t>46,31%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>53,69%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>72,04%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>40,07%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
   </si>
   <si>
     <t>66,75%</t>
   </si>
   <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
+    <t>66,42%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
   </si>
   <si>
     <t>33,25%</t>
   </si>
   <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>64,45%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>35,55%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>21,75%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>56,0%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>40,66%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>63,92%</t>
-  </si>
-  <si>
-    <t>74,87%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2015 (Tasa respuesta: 7,86%)</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>78,15%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>68,69%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>69,83%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>57,22%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>60,83%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>67,9%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>32,1%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>66,42%</t>
-  </si>
-  <si>
-    <t>60,48%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>46,48%</t>
+    <t>46,35%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>39,52%</t>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
   </si>
   <si>
     <t>36,51%</t>
   </si>
   <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4666FC07-C356-48F3-8145-95C9253EB71A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA42799-A392-4032-AAFA-0C6BC194B4F0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1748,7 +1742,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -1757,13 +1751,13 @@
         <v>40237</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1778,13 +1772,13 @@
         <v>4997</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -1793,13 +1787,13 @@
         <v>6824</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -1808,13 +1802,13 @@
         <v>11821</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,7 +1864,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1882,13 +1876,13 @@
         <v>55369</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -1897,13 +1891,13 @@
         <v>44287</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -1912,13 +1906,13 @@
         <v>99657</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1933,13 +1927,13 @@
         <v>19773</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -1948,13 +1942,13 @@
         <v>14097</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -1963,13 +1957,13 @@
         <v>33869</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2025,7 +2019,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2037,13 +2031,13 @@
         <v>34618</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -2052,13 +2046,13 @@
         <v>32071</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -2067,13 +2061,13 @@
         <v>66690</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2088,13 +2082,13 @@
         <v>12882</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -2103,13 +2097,13 @@
         <v>11565</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -2118,13 +2112,13 @@
         <v>24447</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,7 +2174,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2189,16 +2183,16 @@
         <v>56</v>
       </c>
       <c r="D16" s="7">
-        <v>51774</v>
+        <v>51775</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -2207,13 +2201,13 @@
         <v>61314</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -2222,13 +2216,13 @@
         <v>113089</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2237,13 @@
         <v>15364</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -2258,13 +2252,13 @@
         <v>24810</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>40</v>
@@ -2273,13 +2267,13 @@
         <v>40174</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,7 +2285,7 @@
         <v>73</v>
       </c>
       <c r="D18" s="7">
-        <v>67138</v>
+        <v>67139</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2347,13 +2341,13 @@
         <v>170424</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>150</v>
@@ -2362,13 +2356,13 @@
         <v>158002</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>321</v>
@@ -2377,13 +2371,13 @@
         <v>328425</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2392,13 @@
         <v>56296</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>56</v>
@@ -2413,13 +2407,13 @@
         <v>58146</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -2428,13 +2422,13 @@
         <v>114443</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,7 +2484,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2511,7 +2505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B724F23-AAE3-48B8-8A6A-28641F8B8EC9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F05EEE9-524C-47AD-82FC-EA50C1734AE5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2528,7 +2522,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2635,10 +2629,10 @@
         <v>2666</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -2653,7 +2647,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>30</v>
@@ -2665,10 +2659,10 @@
         <v>6913</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -2686,13 +2680,13 @@
         <v>2614</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2933,7 +2927,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3088,7 +3082,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3115,13 +3109,13 @@
         <v>38836</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>33</v>
+        <v>175</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>86</v>
@@ -3130,13 +3124,13 @@
         <v>94582</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3151,13 +3145,13 @@
         <v>27343</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -3166,13 +3160,13 @@
         <v>21607</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>43</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -3181,13 +3175,13 @@
         <v>48950</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3243,7 +3237,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3255,13 +3249,13 @@
         <v>62687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -3270,13 +3264,13 @@
         <v>64152</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -3285,13 +3279,13 @@
         <v>126839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3306,13 +3300,13 @@
         <v>30932</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -3321,13 +3315,13 @@
         <v>32641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -3336,13 +3330,13 @@
         <v>63573</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,13 +3404,13 @@
         <v>222927</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>199</v>
@@ -3425,13 +3419,13 @@
         <v>212595</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>402</v>
@@ -3440,13 +3434,13 @@
         <v>435522</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3461,10 +3455,10 @@
         <v>98194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>217</v>
@@ -3553,7 +3547,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3574,7 +3568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFA780F9-1531-4BD1-9176-152954A45DB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDDCE23-AC1D-46BC-A0DE-6372328E5830}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3889,7 +3883,7 @@
         <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3898,13 @@
         <v>7623</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -3919,13 +3913,13 @@
         <v>20451</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -3934,13 +3928,13 @@
         <v>28073</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +3990,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4008,13 +4002,13 @@
         <v>51895</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -4023,13 +4017,13 @@
         <v>67316</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -4038,13 +4032,13 @@
         <v>119212</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4053,13 @@
         <v>33501</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -4074,13 +4068,13 @@
         <v>18009</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -4089,13 +4083,13 @@
         <v>51510</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,7 +4145,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4163,13 +4157,13 @@
         <v>22737</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -4178,13 +4172,13 @@
         <v>36558</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -4193,13 +4187,13 @@
         <v>59294</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4208,13 @@
         <v>26930</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4229,28 +4223,28 @@
         <v>17406</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>38</v>
       </c>
       <c r="N14" s="7">
-        <v>44337</v>
+        <v>44336</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,7 +4286,7 @@
         <v>95</v>
       </c>
       <c r="N15" s="7">
-        <v>103631</v>
+        <v>103630</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4306,7 +4300,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4318,13 +4312,13 @@
         <v>50783</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -4333,13 +4327,13 @@
         <v>56375</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M16" s="7">
         <v>106</v>
@@ -4348,13 +4342,13 @@
         <v>107158</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4363,13 @@
         <v>31294</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="H17" s="7">
         <v>35</v>
@@ -4384,13 +4378,13 @@
         <v>37694</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>311</v>
       </c>
       <c r="M17" s="7">
         <v>65</v>
@@ -4399,13 +4393,13 @@
         <v>68988</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4467,13 @@
         <v>154709</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H19" s="7">
         <v>181</v>
@@ -4488,13 +4482,13 @@
         <v>192413</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M19" s="7">
         <v>333</v>
@@ -4503,13 +4497,13 @@
         <v>347122</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4518,13 @@
         <v>102337</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H20" s="7">
         <v>90</v>
@@ -4539,13 +4533,13 @@
         <v>97279</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M20" s="7">
         <v>183</v>
@@ -4554,13 +4548,13 @@
         <v>199616</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,7 +4610,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{614A243B-4E54-4EC5-A60A-1E32DEDAF472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53280116-CA3B-413C-91B3-CFD493D54E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7D886295-042C-4CE4-98DB-F5E6CEEC3CCA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B620F3B2-9A24-4840-BB13-D3B7EB32A7EB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,22 +70,22 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>61,14%</t>
   </si>
   <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
   </si>
   <si>
     <t>80,84%</t>
   </si>
   <si>
-    <t>21,75%</t>
+    <t>18,28%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -94,10 +94,10 @@
     <t>67,93%</t>
   </si>
   <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,10 +106,10 @@
     <t>38,86%</t>
   </si>
   <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
   </si>
   <si>
     <t>19,16%</t>
@@ -118,16 +118,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>78,25%</t>
+    <t>81,72%</t>
   </si>
   <si>
     <t>32,07%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,7 +139,7 @@
     <t>82,46%</t>
   </si>
   <si>
-    <t>64,02%</t>
+    <t>61,89%</t>
   </si>
   <si>
     <t>93,09%</t>
@@ -148,16 +148,19 @@
     <t>71,04%</t>
   </si>
   <si>
-    <t>47,89%</t>
+    <t>49,88%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
   </si>
   <si>
     <t>77,29%</t>
   </si>
   <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>17,54%</t>
@@ -166,22 +169,25 @@
     <t>6,91%</t>
   </si>
   <si>
-    <t>35,98%</t>
+    <t>38,11%</t>
   </si>
   <si>
     <t>28,96%</t>
   </si>
   <si>
-    <t>52,11%</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>50,12%</t>
   </si>
   <si>
     <t>22,71%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -190,55 +196,55 @@
     <t>73,69%</t>
   </si>
   <si>
-    <t>62,73%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
   </si>
   <si>
     <t>75,86%</t>
   </si>
   <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
   </si>
   <si>
     <t>74,63%</t>
   </si>
   <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
   </si>
   <si>
     <t>26,31%</t>
   </si>
   <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
   </si>
   <si>
     <t>24,14%</t>
   </si>
   <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
   </si>
   <si>
     <t>25,37%</t>
   </si>
   <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -247,55 +253,55 @@
     <t>72,88%</t>
   </si>
   <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>73,5%</t>
   </si>
   <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
   </si>
   <si>
     <t>73,18%</t>
   </si>
   <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
   </si>
   <si>
     <t>27,12%</t>
   </si>
   <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
   </si>
   <si>
     <t>26,5%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -304,109 +310,103 @@
     <t>77,12%</t>
   </si>
   <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
   </si>
   <si>
     <t>71,19%</t>
   </si>
   <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
+    <t>60,03%</t>
   </si>
   <si>
     <t>73,79%</t>
   </si>
   <si>
-    <t>66,01%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
   </si>
   <si>
     <t>22,88%</t>
   </si>
   <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
   </si>
   <si>
     <t>28,81%</t>
   </si>
   <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
+    <t>39,97%</t>
   </si>
   <si>
     <t>26,21%</t>
   </si>
   <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
   </si>
   <si>
     <t>75,17%</t>
   </si>
   <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
   </si>
   <si>
     <t>73,1%</t>
   </si>
   <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
   </si>
   <si>
     <t>74,16%</t>
   </si>
   <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
   </si>
   <si>
     <t>24,83%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
   </si>
   <si>
     <t>25,84%</t>
   </si>
   <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -418,7 +418,7 @@
     <t>50,49%</t>
   </si>
   <si>
-    <t>10,45%</t>
+    <t>11,34%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -427,13 +427,13 @@
     <t>72,56%</t>
   </si>
   <si>
-    <t>31,33%</t>
+    <t>31,19%</t>
   </si>
   <si>
     <t>49,51%</t>
   </si>
   <si>
-    <t>89,55%</t>
+    <t>88,66%</t>
   </si>
   <si>
     <t>0%</t>
@@ -445,271 +445,265 @@
     <t>27,44%</t>
   </si>
   <si>
-    <t>68,67%</t>
+    <t>68,81%</t>
   </si>
   <si>
     <t>81,63%</t>
   </si>
   <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
   </si>
   <si>
     <t>82,96%</t>
   </si>
   <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
+    <t>71,49%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
   </si>
   <si>
     <t>82,24%</t>
   </si>
   <si>
-    <t>74,73%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>18,37%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
   </si>
   <si>
     <t>17,04%</t>
   </si>
   <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
   </si>
   <si>
     <t>65,87%</t>
   </si>
   <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
   </si>
   <si>
     <t>76,12%</t>
   </si>
   <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
   </si>
   <si>
     <t>71,13%</t>
   </si>
   <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
   </si>
   <si>
     <t>34,13%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
   </si>
   <si>
     <t>23,88%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
   </si>
   <si>
     <t>28,87%</t>
   </si>
   <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
   </si>
   <si>
     <t>67,09%</t>
   </si>
   <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>64,25%</t>
   </si>
   <si>
-    <t>51,64%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
   </si>
   <si>
     <t>65,9%</t>
   </si>
   <si>
-    <t>57,04%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
+    <t>56,88%</t>
   </si>
   <si>
     <t>32,91%</t>
   </si>
   <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
   </si>
   <si>
     <t>35,75%</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>48,36%</t>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
   </si>
   <si>
     <t>34,1%</t>
   </si>
   <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
   </si>
   <si>
     <t>66,28%</t>
   </si>
   <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>75,59%</t>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
   </si>
   <si>
     <t>66,61%</t>
   </si>
   <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
   </si>
   <si>
     <t>33,72%</t>
   </si>
   <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
   </si>
   <si>
     <t>33,39%</t>
   </si>
   <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
   </si>
   <si>
     <t>69,42%</t>
   </si>
   <si>
-    <t>64,1%</t>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
   </si>
   <si>
     <t>72,08%</t>
   </si>
   <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
   </si>
   <si>
     <t>30,58%</t>
   </si>
   <si>
-    <t>35,9%</t>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
   </si>
   <si>
     <t>27,92%</t>
   </si>
   <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
   </si>
   <si>
     <t>29,31%</t>
   </si>
   <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2016 (Tasa respuesta: 7,86%)</t>
@@ -718,319 +712,325 @@
     <t>67,19%</t>
   </si>
   <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
   </si>
   <si>
     <t>50,54%</t>
   </si>
   <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
   </si>
   <si>
     <t>59,66%</t>
   </si>
   <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
+    <t>31,71%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
   </si>
   <si>
     <t>32,81%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
   </si>
   <si>
     <t>49,46%</t>
   </si>
   <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>40,34%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
   </si>
   <si>
     <t>75,25%</t>
   </si>
   <si>
-    <t>55,7%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>56,96%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
   </si>
   <si>
     <t>58,11%</t>
   </si>
   <si>
-    <t>43,24%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
+    <t>43,44%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
   </si>
   <si>
     <t>64,74%</t>
   </si>
   <si>
-    <t>52,95%</t>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
   </si>
   <si>
     <t>24,75%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
   </si>
   <si>
     <t>41,89%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>56,56%</t>
   </si>
   <si>
     <t>35,26%</t>
   </si>
   <si>
-    <t>47,05%</t>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
   </si>
   <si>
     <t>60,77%</t>
   </si>
   <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
   </si>
   <si>
     <t>78,89%</t>
   </si>
   <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
   <si>
     <t>69,83%</t>
   </si>
   <si>
-    <t>61,55%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
   </si>
   <si>
     <t>39,23%</t>
   </si>
   <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>51,61%</t>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
   </si>
   <si>
     <t>21,11%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
   </si>
   <si>
     <t>30,17%</t>
   </si>
   <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
   </si>
   <si>
     <t>45,78%</t>
   </si>
   <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
   </si>
   <si>
     <t>67,74%</t>
   </si>
   <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
+    <t>52,39%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
   </si>
   <si>
     <t>57,22%</t>
   </si>
   <si>
-    <t>46,31%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
   </si>
   <si>
     <t>54,22%</t>
   </si>
   <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
   </si>
   <si>
     <t>32,26%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>47,61%</t>
   </si>
   <si>
     <t>42,78%</t>
   </si>
   <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>53,69%</t>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>53,65%</t>
   </si>
   <si>
     <t>61,87%</t>
   </si>
   <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>72,04%</t>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
   </si>
   <si>
     <t>59,93%</t>
   </si>
   <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
   </si>
   <si>
     <t>60,83%</t>
   </si>
   <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
   </si>
   <si>
     <t>38,13%</t>
   </si>
   <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
   </si>
   <si>
     <t>40,07%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>39,17%</t>
   </si>
   <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>47,13%</t>
   </si>
   <si>
     <t>60,19%</t>
   </si>
   <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>66,55%</t>
   </si>
   <si>
     <t>66,42%</t>
   </si>
   <si>
-    <t>60,68%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
   </si>
   <si>
     <t>63,49%</t>
   </si>
   <si>
-    <t>59,37%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
   </si>
   <si>
     <t>39,81%</t>
   </si>
   <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>39,32%</t>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
   </si>
   <si>
     <t>36,51%</t>
   </si>
   <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>40,63%</t>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
   </si>
 </sst>
 </file>
@@ -1442,7 +1442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FA42799-A392-4032-AAFA-0C6BC194B4F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA9574C-6AE3-4A8F-9141-1732A2A60A18}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1742,7 +1742,7 @@
         <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>41</v>
@@ -1751,13 +1751,13 @@
         <v>40237</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1772,13 +1772,13 @@
         <v>4997</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -1787,13 +1787,13 @@
         <v>6824</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -1802,13 +1802,13 @@
         <v>11821</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1864,7 +1864,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1876,13 +1876,13 @@
         <v>55369</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -1891,13 +1891,13 @@
         <v>44287</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>90</v>
@@ -1906,13 +1906,13 @@
         <v>99657</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1927,13 +1927,13 @@
         <v>19773</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -1942,13 +1942,13 @@
         <v>14097</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>32</v>
@@ -1957,13 +1957,13 @@
         <v>33869</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,7 +2019,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2031,13 +2031,13 @@
         <v>34618</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
@@ -2046,13 +2046,13 @@
         <v>32071</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -2061,13 +2061,13 @@
         <v>66690</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,13 +2082,13 @@
         <v>12882</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -2097,13 +2097,13 @@
         <v>11565</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>24</v>
@@ -2112,13 +2112,13 @@
         <v>24447</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2174,7 +2174,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2183,16 +2183,16 @@
         <v>56</v>
       </c>
       <c r="D16" s="7">
-        <v>51775</v>
+        <v>51774</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>60</v>
@@ -2201,13 +2201,13 @@
         <v>61314</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="M16" s="7">
         <v>116</v>
@@ -2216,13 +2216,13 @@
         <v>113089</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,13 +2237,13 @@
         <v>15364</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -2252,10 +2252,10 @@
         <v>24810</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>101</v>
@@ -2285,7 +2285,7 @@
         <v>73</v>
       </c>
       <c r="D18" s="7">
-        <v>67139</v>
+        <v>67138</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2505,7 +2505,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F05EEE9-524C-47AD-82FC-EA50C1734AE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6C5CB8-97BE-4F0C-AE25-8EA294D7272E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2927,7 +2927,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3082,7 +3082,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3130,7 +3130,7 @@
         <v>179</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,13 +3145,13 @@
         <v>27343</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H14" s="7">
         <v>21</v>
@@ -3160,13 +3160,13 @@
         <v>21607</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M14" s="7">
         <v>45</v>
@@ -3175,13 +3175,13 @@
         <v>48950</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,7 +3237,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3249,13 +3249,13 @@
         <v>62687</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>61</v>
@@ -3264,13 +3264,13 @@
         <v>64152</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -3279,13 +3279,13 @@
         <v>126839</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3300,13 +3300,13 @@
         <v>30932</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -3315,13 +3315,13 @@
         <v>32641</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M17" s="7">
         <v>63</v>
@@ -3330,13 +3330,13 @@
         <v>63573</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3404,13 +3404,13 @@
         <v>222927</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="H19" s="7">
         <v>199</v>
@@ -3419,13 +3419,13 @@
         <v>212595</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M19" s="7">
         <v>402</v>
@@ -3434,13 +3434,13 @@
         <v>435522</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3455,13 +3455,13 @@
         <v>98194</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H20" s="7">
         <v>81</v>
@@ -3470,13 +3470,13 @@
         <v>82363</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M20" s="7">
         <v>171</v>
@@ -3485,13 +3485,13 @@
         <v>180557</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,7 +3568,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDDCE23-AC1D-46BC-A0DE-6372328E5830}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD065BD-B90A-4021-898F-2E44D9D31B64}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3585,7 +3585,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3692,13 +3692,13 @@
         <v>6122</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -3707,13 +3707,13 @@
         <v>3800</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -3722,13 +3722,13 @@
         <v>9923</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3743,13 @@
         <v>2990</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3758,13 +3758,13 @@
         <v>3720</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -3773,13 +3773,13 @@
         <v>6709</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,13 +3847,13 @@
         <v>23171</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -3862,13 +3862,13 @@
         <v>28363</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -3877,13 +3877,13 @@
         <v>51535</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,13 +3898,13 @@
         <v>7623</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>19</v>
@@ -3913,13 +3913,13 @@
         <v>20451</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>26</v>
@@ -3928,10 +3928,10 @@
         <v>28073</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>258</v>
@@ -3990,7 +3990,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -4235,7 +4235,7 @@
         <v>38</v>
       </c>
       <c r="N14" s="7">
-        <v>44336</v>
+        <v>44337</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>292</v>
@@ -4286,7 +4286,7 @@
         <v>95</v>
       </c>
       <c r="N15" s="7">
-        <v>103630</v>
+        <v>103631</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4300,7 +4300,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>

--- a/data/trans_orig/P16B01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53280116-CA3B-413C-91B3-CFD493D54E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CDFC689-5F71-481D-A28C-1A1B7B5DC412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B620F3B2-9A24-4840-BB13-D3B7EB32A7EB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{56199B01-64B2-4DDE-A492-392D409188E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="285">
   <si>
     <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2007 (Tasa respuesta: 6,65%)</t>
   </si>
@@ -67,754 +67,616 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>62,63%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>62,72%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
   </si>
   <si>
     <t>80,84%</t>
   </si>
   <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>67,93%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
+    <t>73,79%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
   </si>
   <si>
     <t>19,16%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>49,88%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>73,1%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>62,65%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>64,25%</t>
+  </si>
+  <si>
+    <t>51,43%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>56,88%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>45,48%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>56,75%</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2016 (Tasa respuesta: 7,86%)</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
   </si>
   <si>
     <t>63,86%</t>
   </si>
   <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>50,12%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
   </si>
   <si>
     <t>36,14%</t>
   </si>
   <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>62,72%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>58,44%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>73,1%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2012 (Tasa respuesta: 8,81%)</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>71,49%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>64,25%</t>
-  </si>
-  <si>
-    <t>51,43%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>65,9%</t>
-  </si>
-  <si>
-    <t>56,88%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>56,18%</t>
-  </si>
-  <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>43,82%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>66,36%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>Población según si las medicinas para el catarro fueron recetadas por el médico en 2016 (Tasa respuesta: 7,86%)</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>56,96%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>43,44%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>53,57%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>56,56%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
   </si>
   <si>
     <t>60,77%</t>
@@ -1442,8 +1304,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA9574C-6AE3-4A8F-9141-1732A2A60A18}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FB3939C-A756-412E-8A61-7B6674105DAF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1560,10 +1422,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>5162</v>
+        <v>28661</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1575,10 +1437,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>3591</v>
+        <v>20328</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1590,10 +1452,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="N4" s="7">
-        <v>8753</v>
+        <v>48989</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1611,10 +1473,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>3280</v>
+        <v>8278</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1626,10 +1488,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>851</v>
+        <v>7675</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1641,10 +1503,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>4131</v>
+        <v>15953</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1662,10 +1524,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7">
-        <v>8442</v>
+        <v>36939</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1677,10 +1539,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>4442</v>
+        <v>28003</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1692,10 +1554,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>66</v>
       </c>
       <c r="N6" s="7">
-        <v>12884</v>
+        <v>64942</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1715,10 +1577,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="D7" s="7">
-        <v>23500</v>
+        <v>55369</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1730,10 +1592,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I7" s="7">
-        <v>16737</v>
+        <v>44287</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1745,10 +1607,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="N7" s="7">
-        <v>40237</v>
+        <v>99657</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1766,10 +1628,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7">
-        <v>4997</v>
+        <v>19773</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1781,10 +1643,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>6824</v>
+        <v>14097</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1796,10 +1658,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N8" s="7">
-        <v>11821</v>
+        <v>33869</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1817,10 +1679,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7">
-        <v>28497</v>
+        <v>75142</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1832,10 +1694,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="I9" s="7">
-        <v>23561</v>
+        <v>58384</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1847,10 +1709,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="N9" s="7">
-        <v>52058</v>
+        <v>133526</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1870,10 +1732,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>55369</v>
+        <v>34618</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1885,10 +1747,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>44287</v>
+        <v>32071</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1900,10 +1762,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="N10" s="7">
-        <v>99657</v>
+        <v>66690</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1921,10 +1783,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D11" s="7">
-        <v>19773</v>
+        <v>12882</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1936,10 +1798,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I11" s="7">
-        <v>14097</v>
+        <v>11565</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1951,10 +1813,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="N11" s="7">
-        <v>33869</v>
+        <v>24447</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1972,10 +1834,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7">
-        <v>75142</v>
+        <v>47500</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1987,10 +1849,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="I12" s="7">
-        <v>58384</v>
+        <v>43636</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2002,10 +1864,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="N12" s="7">
-        <v>133526</v>
+        <v>91137</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2025,10 +1887,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7">
-        <v>34618</v>
+        <v>51775</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2040,10 +1902,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="I13" s="7">
-        <v>32071</v>
+        <v>61314</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2055,10 +1917,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>65</v>
+        <v>116</v>
       </c>
       <c r="N13" s="7">
-        <v>66690</v>
+        <v>113089</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2076,10 +1938,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="7">
-        <v>12882</v>
+        <v>15364</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2091,10 +1953,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I14" s="7">
-        <v>11565</v>
+        <v>24810</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2106,10 +1968,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N14" s="7">
-        <v>24447</v>
+        <v>40174</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2127,10 +1989,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="D15" s="7">
-        <v>47500</v>
+        <v>67139</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2142,10 +2004,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="I15" s="7">
-        <v>43636</v>
+        <v>86124</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2157,10 +2019,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="N15" s="7">
-        <v>91137</v>
+        <v>153263</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2174,46 +2036,46 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>56</v>
+        <v>171</v>
       </c>
       <c r="D16" s="7">
-        <v>51774</v>
+        <v>170424</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>150</v>
+      </c>
+      <c r="I16" s="7">
+        <v>158002</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>60</v>
-      </c>
-      <c r="I16" s="7">
-        <v>61314</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>14</v>
-      </c>
       <c r="M16" s="7">
-        <v>116</v>
+        <v>321</v>
       </c>
       <c r="N16" s="7">
-        <v>113089</v>
+        <v>328425</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -2231,10 +2093,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="D17" s="7">
-        <v>15364</v>
+        <v>56296</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2246,34 +2108,34 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="I17" s="7">
-        <v>24810</v>
+        <v>58146</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="N17" s="7">
-        <v>40174</v>
+        <v>114443</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2282,10 +2144,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>73</v>
+        <v>227</v>
       </c>
       <c r="D18" s="7">
-        <v>67138</v>
+        <v>226720</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2297,10 +2159,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="I18" s="7">
-        <v>86124</v>
+        <v>216148</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2312,10 +2174,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>156</v>
+        <v>433</v>
       </c>
       <c r="N18" s="7">
-        <v>153263</v>
+        <v>442868</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2328,171 +2190,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>171</v>
-      </c>
-      <c r="D19" s="7">
-        <v>170424</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>150</v>
-      </c>
-      <c r="I19" s="7">
-        <v>158002</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>321</v>
-      </c>
-      <c r="N19" s="7">
-        <v>328425</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>56</v>
-      </c>
-      <c r="D20" s="7">
-        <v>56296</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>56</v>
-      </c>
-      <c r="I20" s="7">
-        <v>58146</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>112</v>
-      </c>
-      <c r="N20" s="7">
-        <v>114443</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>227</v>
-      </c>
-      <c r="D21" s="7">
-        <v>226720</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>206</v>
-      </c>
-      <c r="I21" s="7">
-        <v>216148</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>433</v>
-      </c>
-      <c r="N21" s="7">
-        <v>442868</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2505,8 +2211,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE6C5CB8-97BE-4F0C-AE25-8EA294D7272E}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3292DAF0-F968-4F1B-B569-C12D59CB8B3C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2522,7 +2228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2623,49 +2329,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7">
-        <v>2666</v>
+        <v>55378</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>16</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="I4" s="7">
-        <v>4247</v>
+        <v>49834</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>30</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="N4" s="7">
-        <v>6913</v>
+        <v>105213</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2674,49 +2380,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>2614</v>
+        <v>14473</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>9365</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="N5" s="7">
-        <v>2614</v>
+        <v>23838</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2725,10 +2431,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="D6" s="7">
-        <v>5280</v>
+        <v>69851</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2740,10 +2446,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="I6" s="7">
-        <v>4247</v>
+        <v>59199</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2755,10 +2461,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>9</v>
+        <v>122</v>
       </c>
       <c r="N6" s="7">
-        <v>9527</v>
+        <v>129051</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2778,49 +2484,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D7" s="7">
-        <v>52712</v>
+        <v>49116</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="I7" s="7">
-        <v>45587</v>
+        <v>59773</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="N7" s="7">
-        <v>98300</v>
+        <v>108889</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,49 +2535,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7">
-        <v>11859</v>
+        <v>25446</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="I8" s="7">
-        <v>9365</v>
+        <v>18750</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="N8" s="7">
-        <v>21224</v>
+        <v>44196</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,10 +2586,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D9" s="7">
-        <v>64571</v>
+        <v>74562</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2895,10 +2601,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>54952</v>
+        <v>78523</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2910,10 +2616,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="N9" s="7">
-        <v>119524</v>
+        <v>153085</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2933,49 +2639,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" s="7">
-        <v>49116</v>
+        <v>55746</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
+        <v>37</v>
+      </c>
+      <c r="I10" s="7">
+        <v>38836</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M10" s="7">
+        <v>86</v>
+      </c>
+      <c r="N10" s="7">
+        <v>94582</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="I10" s="7">
-        <v>59773</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M10" s="7">
-        <v>100</v>
-      </c>
-      <c r="N10" s="7">
-        <v>108889</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2984,49 +2690,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>25446</v>
+        <v>27343</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="H11" s="7">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>18750</v>
+        <v>21607</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="M11" s="7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N11" s="7">
-        <v>44196</v>
+        <v>48950</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>63</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3035,10 +2741,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D12" s="7">
-        <v>74562</v>
+        <v>83089</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3050,10 +2756,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="I12" s="7">
-        <v>78523</v>
+        <v>60443</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3065,10 +2771,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="N12" s="7">
-        <v>153085</v>
+        <v>143532</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3088,49 +2794,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D13" s="7">
-        <v>55746</v>
+        <v>62687</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="I13" s="7">
-        <v>38836</v>
+        <v>64152</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="N13" s="7">
-        <v>94582</v>
+        <v>126839</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,49 +2845,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>27343</v>
+        <v>30932</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>102</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I14" s="7">
-        <v>21607</v>
+        <v>32641</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="N14" s="7">
-        <v>48950</v>
+        <v>63573</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3190,10 +2896,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="D15" s="7">
-        <v>83089</v>
+        <v>93619</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3205,10 +2911,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="I15" s="7">
-        <v>60443</v>
+        <v>96793</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3220,10 +2926,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="N15" s="7">
-        <v>143532</v>
+        <v>190412</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3237,55 +2943,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="D16" s="7">
-        <v>62687</v>
+        <v>222927</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>61</v>
+        <v>199</v>
       </c>
       <c r="I16" s="7">
-        <v>64152</v>
+        <v>212595</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>117</v>
+        <v>402</v>
       </c>
       <c r="N16" s="7">
-        <v>126839</v>
+        <v>435522</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,49 +3000,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D17" s="7">
-        <v>30932</v>
+        <v>98194</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="I17" s="7">
-        <v>32641</v>
+        <v>82363</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="N17" s="7">
-        <v>63573</v>
+        <v>180557</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,10 +3051,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>86</v>
+        <v>293</v>
       </c>
       <c r="D18" s="7">
-        <v>93619</v>
+        <v>321121</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3360,10 +3066,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>94</v>
+        <v>280</v>
       </c>
       <c r="I18" s="7">
-        <v>96793</v>
+        <v>294958</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3375,10 +3081,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>180</v>
+        <v>573</v>
       </c>
       <c r="N18" s="7">
-        <v>190412</v>
+        <v>616079</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3391,171 +3097,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>203</v>
-      </c>
-      <c r="D19" s="7">
-        <v>222927</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="7">
-        <v>199</v>
-      </c>
-      <c r="I19" s="7">
-        <v>212595</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="M19" s="7">
-        <v>402</v>
-      </c>
-      <c r="N19" s="7">
-        <v>435522</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>90</v>
-      </c>
-      <c r="D20" s="7">
-        <v>98194</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H20" s="7">
-        <v>81</v>
-      </c>
-      <c r="I20" s="7">
-        <v>82363</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M20" s="7">
-        <v>171</v>
-      </c>
-      <c r="N20" s="7">
-        <v>180557</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>293</v>
-      </c>
-      <c r="D21" s="7">
-        <v>321121</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>280</v>
-      </c>
-      <c r="I21" s="7">
-        <v>294958</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>573</v>
-      </c>
-      <c r="N21" s="7">
-        <v>616079</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3568,8 +3118,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBD065BD-B90A-4021-898F-2E44D9D31B64}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2F7FDE-D2CD-49E0-9D72-8A6F392A3B88}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3585,7 +3135,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3686,49 +3236,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>6122</v>
+        <v>29293</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="I4" s="7">
-        <v>3800</v>
+        <v>32164</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="N4" s="7">
-        <v>9923</v>
+        <v>61457</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3737,49 +3287,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7">
-        <v>2990</v>
+        <v>10613</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>3720</v>
+        <v>24170</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="N5" s="7">
-        <v>6709</v>
+        <v>34783</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,10 +3338,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D6" s="7">
-        <v>9112</v>
+        <v>39906</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3803,10 +3353,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="I6" s="7">
-        <v>7520</v>
+        <v>56334</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3818,10 +3368,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="N6" s="7">
-        <v>16632</v>
+        <v>96240</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3841,49 +3391,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7">
-        <v>23171</v>
+        <v>51895</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="I7" s="7">
-        <v>28363</v>
+        <v>67316</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="N7" s="7">
-        <v>51535</v>
+        <v>119212</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,49 +3442,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>7623</v>
+        <v>33501</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I8" s="7">
-        <v>20451</v>
+        <v>18009</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="N8" s="7">
-        <v>28073</v>
+        <v>51510</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,10 +3493,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7">
-        <v>30794</v>
+        <v>85396</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3958,10 +3508,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="I9" s="7">
-        <v>48814</v>
+        <v>85325</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3973,10 +3523,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="N9" s="7">
-        <v>79608</v>
+        <v>170722</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3996,49 +3546,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D10" s="7">
-        <v>51895</v>
+        <v>22737</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="I10" s="7">
-        <v>67316</v>
+        <v>36558</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="N10" s="7">
-        <v>119212</v>
+        <v>59294</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4047,49 +3597,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>33501</v>
+        <v>26930</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I11" s="7">
-        <v>18009</v>
+        <v>17406</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="N11" s="7">
-        <v>51510</v>
+        <v>44336</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4098,10 +3648,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="D12" s="7">
-        <v>85396</v>
+        <v>49667</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4113,10 +3663,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="I12" s="7">
-        <v>85325</v>
+        <v>53964</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4128,10 +3678,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="N12" s="7">
-        <v>170722</v>
+        <v>103630</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4151,49 +3701,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>22737</v>
+        <v>50783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>36558</v>
+        <v>56375</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="N13" s="7">
-        <v>59294</v>
+        <v>107158</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,49 +3752,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>26930</v>
+        <v>31294</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7">
-        <v>17406</v>
+        <v>37694</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="N14" s="7">
-        <v>44337</v>
+        <v>68988</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,10 +3803,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D15" s="7">
-        <v>49667</v>
+        <v>82077</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4268,10 +3818,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="I15" s="7">
-        <v>53964</v>
+        <v>94069</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4283,10 +3833,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="N15" s="7">
-        <v>103631</v>
+        <v>176146</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4300,55 +3850,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>53</v>
+        <v>152</v>
       </c>
       <c r="D16" s="7">
-        <v>50783</v>
+        <v>154709</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>53</v>
+        <v>181</v>
       </c>
       <c r="I16" s="7">
-        <v>56375</v>
+        <v>192413</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
-        <v>106</v>
+        <v>333</v>
       </c>
       <c r="N16" s="7">
-        <v>107158</v>
+        <v>347122</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,49 +3907,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="D17" s="7">
-        <v>31294</v>
+        <v>102337</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>305</v>
+        <v>277</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>278</v>
       </c>
       <c r="H17" s="7">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="I17" s="7">
-        <v>37694</v>
+        <v>97279</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
-        <v>65</v>
+        <v>183</v>
       </c>
       <c r="N17" s="7">
-        <v>68988</v>
+        <v>199616</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,10 +3958,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>83</v>
+        <v>245</v>
       </c>
       <c r="D18" s="7">
-        <v>82077</v>
+        <v>257046</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4423,10 +3973,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="I18" s="7">
-        <v>94069</v>
+        <v>289692</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4438,10 +3988,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>171</v>
+        <v>516</v>
       </c>
       <c r="N18" s="7">
-        <v>176146</v>
+        <v>546738</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4454,171 +4004,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>152</v>
-      </c>
-      <c r="D19" s="7">
-        <v>154709</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H19" s="7">
-        <v>181</v>
-      </c>
-      <c r="I19" s="7">
-        <v>192413</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M19" s="7">
-        <v>333</v>
-      </c>
-      <c r="N19" s="7">
-        <v>347122</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>93</v>
-      </c>
-      <c r="D20" s="7">
-        <v>102337</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H20" s="7">
-        <v>90</v>
-      </c>
-      <c r="I20" s="7">
-        <v>97279</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M20" s="7">
-        <v>183</v>
-      </c>
-      <c r="N20" s="7">
-        <v>199616</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>245</v>
-      </c>
-      <c r="D21" s="7">
-        <v>257046</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>271</v>
-      </c>
-      <c r="I21" s="7">
-        <v>289692</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>516</v>
-      </c>
-      <c r="N21" s="7">
-        <v>546738</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
